--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_117.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_117.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,448 +488,462 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_277</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.425</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min']]</t>
+          <t>[['C', 'G', 'D'], ['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(36.66, 43.94)]</t>
+          <t>[['A', 'E', 'B'], ['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(74.5, 80.42)]</t>
+          <t>[('0:00:03.117845', '0:00:14.158934'), ('0:00:00.344657', '0:00:11.337709')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:35.080113', '0:00:43.578616'), ('0:00:32.920657', '0:00:39.410634')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>isophonics_217</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3882352941176471</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G#:min', 'D#:min', 'A#:7', 'D#:min']]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(18.64, 28.9)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(6.76, 12.96)]</t>
+          <t>[('0:00:06.415079', '0:00:14.054444')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:02:08.540000', '0:02:12.840000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_28</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7333333333333334</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(55.4, 65.22)]</t>
+          <t>[['C#', 'F#/5', 'C#', 'F#/5']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(15.3, 19.72)]</t>
+          <t>[('0:02:34.020000', '0:02:40.380000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:31.469410', '0:02:07.006105')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.07480106100795755</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_88</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3939393939393939</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(5.20815, 11.03585)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(16.82, 23.18)]</t>
+          <t>[('0:00:59.800000', '0:01:09.340000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
+          <t>[('0:00:16.040000', '0:00:21')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_138</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2666666666666667</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
+          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(0.3, 20.7)]</t>
+          <t>[['G#:min', 'D#:min', 'A#:7', 'D#:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(0.38, 21.84)]</t>
+          <t>[('0:00:16.720000', '0:00:26.460000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:06.760000', '0:00:12.960000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_55</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_128</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'F:min']]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(14.78, 19.02)]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(3.34, 6.82)]</t>
+          <t>[('0:00:05.360000', '0:01:50.760000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:05.460000', '0:02:06.860000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_124</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_21</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3736263736263736</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(15.94, 24.9)]</t>
+          <t>[['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(41.08, 43.34)]</t>
+          <t>[('0:00:49.480000', '0:01:02.360000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:02.020000', '0:00:10.620000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7', 'G:min', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_205</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_14</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.06995192307692308</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
+          <t>[['G:7/F', 'C:maj/E', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(3.1, 7.72)]</t>
+          <t>[['C:7', 'F', 'C/3']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(9.56, 25.14)]</t>
+          <t>[('0:00:58.460000', '0:01:03.460000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:12.503707', '0:00:19.759943')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:0pNeVovbiZHkulpGeOx1Gj</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_231</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_139</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.104371097234612</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D/5', 'G', 'C'], ['C', 'D', 'D/b7'], ['C', 'D', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_18</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'C'], ['C', 'D', 'D'], ['C', 'D', 'G']]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(38.435396, 43.311587), (34.499614, 37.436938), (17.014988, 20.892721)]</t>
+          <t>[['A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(53.176848, 58.331678), (62.09331, 68.467188), (51.85331, 57.05458)]</t>
+          <t>[('0:01:06.060000', '0:01:08.180000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:4F1AgKpuFRMLEgtPETVwZk</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:25yQPHgC35WNnnOUqFhgVR</t>
-        </is>
-      </c>
+          <t>[('0:01:13.320000', '0:01:21.680000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_79</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.2753623188405797</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(13.42, 17.82)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(7.4, 18.24)]</t>
+          <t>[('0:00:00.500000', '0:00:05.580000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:17.380000', '0:00:31.860000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
         <is>
           <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
@@ -933,272 +952,228 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_58</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_128</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.1230769230769231</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(12.74, 26.98), (71.7, 78.4)]</t>
+          <t>[['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(13.66, 17.9), (31.6, 33.8)]</t>
+          <t>[('0:00:37.960000', '0:00:44.800000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:46.520000', '0:00:48.940000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_115</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_143</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.09779367918902802</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min']]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(13.66, 17.9)]</t>
+          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(36.64, 38.52)]</t>
+          <t>[('0:01:43.420000', '0:01:55.040000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:35.140000', '0:00:42.320000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>jaah_8</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>jaah_22</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7606635071090048</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>[['Bb:maj6/5', 'G:min7', 'F:7', 'Bb:maj6', 'Bb:maj6', 'G:min7', 'C:min7', 'F:7', 'D:min7', 'G:min7', 'C:min7', 'F:7', 'Bb:maj6', 'Eb:maj6', 'E:dim7', 'Bb:maj6/5', 'G:min7', 'C:min7', 'F:7', 'Bb:maj6', 'G:min7', 'C:min7', 'F:7', 'D:min7', 'G:min7', 'C:min7', 'F:7', 'Bb:maj6', 'Eb:maj6', 'E:dim7', 'Bb:maj6/5', 'G:min7', 'F:7', 'Bb:maj6', 'D:7', 'D:7', 'G:7', 'G:7', 'C:7', 'C:7', 'F:7', 'F:7', 'Bb:maj6', 'G:min7', 'C:min7', 'F:7', 'D:min7', 'G:min7', 'C:min7', 'F:7', 'Bb:maj6', 'Eb:maj6', 'E:dim7', 'Bb:maj6/5', 'G:min7', 'F:7', 'Bb:maj6', 'Bb:maj6', 'G:min7', 'C:min7', 'F:7', 'D:min7', 'G:min7', 'C:min7', 'F:7', 'Bb:maj6', 'Eb:maj6', 'E:dim7', 'Bb:maj6/5', 'G:min7', 'C:min7', 'F:7', 'Bb:maj6', 'G:min7', 'C:min7', 'F:7', 'D:min7', 'G:min7', 'C:min7', 'F:7', 'Bb:maj6', 'Eb:maj6', 'E:dim7', 'Bb:maj6/5', 'G:min7', 'F:7', 'Bb:maj6', 'D:7', 'D:7', 'G:7', 'G:7', 'C:7', 'C:7', 'F:7', 'F:7', 'Bb:maj6', 'G:min7', 'C:min7', 'F:7', 'D:min7', 'G:min7', 'C:min7', 'F:7', 'Bb:maj6', 'Eb:maj6', 'E:dim7', 'Bb:maj6/5', 'G:min7', 'F:7', 'Bb:maj6']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(12.74, 26.98), (71.7, 78.4)]</t>
+          <t>[['Bb:maj6/5', 'G:min7', 'F:7', 'Bb:maj6', 'Bb:maj6', 'G:min7', 'C:min7', 'F:7', 'D:min7', 'G:min7', 'C:min7', 'F:7', 'Bb:maj6', 'Eb:maj6', 'E:dim7', 'Bb:maj6/5', 'G:min7', 'C:min7', 'F:7', 'Bb:maj6', 'G:min7', 'C:min7', 'F:7', 'D:min7', 'G:min7', 'C:min7', 'F:7', 'Bb:maj6', 'Eb:maj6', 'E:dim7', 'Bb:maj6/5', 'G:min7', 'F:7', 'Bb:maj6', 'D:7', 'D:7', 'G:7', 'G:7', 'C:7', 'C:7', 'F:7', 'F:7', 'Bb:maj6', 'G:min7', 'C:min7', 'F:7', 'D:min7', 'G:min7', 'C:min7', 'F:7', 'Bb:maj6', 'Eb:maj6', 'E:dim7', 'Bb:maj6/5', 'G:min7', 'F:7', 'Bb:maj6', 'Bb:maj6', 'G:min7', 'C:min7', 'F:7', 'D:min7', 'G:min7', 'C:min7', 'F:7', 'Bb:maj6', 'Eb:maj6', 'E:dim7', 'Bb:maj6/5', 'G:min7', 'C:min7', 'F:7', 'Bb:maj6', 'G:min7', 'C:min7', 'F:7', 'D:min7', 'G:min7', 'C:min7', 'F:7', 'Bb:maj6', 'Eb:maj6', 'E:dim7', 'Bb:maj6/5', 'G:min7', 'F:7', 'Bb:maj6', 'D:7', 'D:7', 'G:7', 'G:7', 'C:7', 'C:7', 'F:7', 'F:7', 'Bb:maj6', 'G:min7', 'C:min7', 'F:7', 'D:min7', 'G:min7', 'C:min7', 'F:7', 'Bb:maj6', 'Eb:maj6', 'E:dim7', 'Bb:maj6/5', 'G:min7', 'F:7', 'Bb:maj6']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(14.2, 18.8), (31.74, 33.88)]</t>
+          <t>[('0:00:59.490000', '0:02:05.030000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:02.390000', '0:01:06.740000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.07542426147077311</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:7', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_13</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_10</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['B:maj', 'F#:7', 'B:maj', 'F#:7', 'B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj', 'E:7', 'A:maj', 'C#:7/G#', 'G:(3,5)', 'B:maj', 'G#:(3,5,b7,b9)', 'C#:min/F#', 'E:maj/F#', 'F#:7', 'B:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(1.129708, 6.12526)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(1.44, 6.66)]</t>
+          <t>[('0:00:00.320000', '0:00:40.640000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:00.800000', '0:00:41.860000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1136044880785414</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D:min', 'G:min/5', 'D:min']]</t>
-        </is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.75</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['G:min', 'C:min/G', 'G:min']]</t>
+          <t>[['G', 'C', 'G', 'D']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(27.789047, 31.109501)]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj', 'A:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(1.64, 5.02)]</t>
+          <t>[('0:00:00.344657', '0:00:14.158934')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(5.36, 110.76)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(6.3, 113.78)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:57.480000', '0:01:08.700000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
